--- a/application/Controller/static/output.xlsx
+++ b/application/Controller/static/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>user_id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Bimlesh K</t>
   </si>
   <si>
+    <t>bimleshkanth</t>
+  </si>
+  <si>
     <t>mdikram88</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>mdikram888</t>
   </si>
   <si>
+    <t>username4</t>
+  </si>
+  <si>
     <t>abcd@gmail.com</t>
   </si>
   <si>
@@ -100,12 +106,18 @@
     <t>21f2000712@ds.study.iitm.ac.in</t>
   </si>
   <si>
+    <t>stone388019@gmail.com</t>
+  </si>
+  <si>
     <t>12345678</t>
   </si>
   <si>
     <t>abcd1234</t>
   </si>
   <si>
+    <t>acdbe1234</t>
+  </si>
+  <si>
     <t>21f299912</t>
   </si>
   <si>
@@ -124,9 +136,15 @@
     <t>21f2200123</t>
   </si>
   <si>
+    <t>23f1005524</t>
+  </si>
+  <si>
     <t>44448888</t>
   </si>
   <si>
+    <t>202001</t>
+  </si>
+  <si>
     <t>enrollment_id</t>
   </si>
   <si>
@@ -151,9 +169,6 @@
     <t>Jan</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -266,6 +281,9 @@
   </si>
   <si>
     <t>rating</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
   </si>
   <si>
     <t>blab blabalba</t>
@@ -626,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,19 +690,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -704,19 +722,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -736,19 +754,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -768,19 +786,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -800,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -832,19 +850,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -854,6 +872,38 @@
       </c>
       <c r="J7" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +913,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,25 +921,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -906,7 +956,7 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -929,7 +979,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -940,48 +990,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
       <c r="D4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,31 +1026,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1031,25 +1058,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1060,28 +1087,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1089,25 +1116,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1118,25 +1145,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1147,25 +1174,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1186,25 +1213,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1212,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>5</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1235,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>5</v>

--- a/application/Controller/static/output.xlsx
+++ b/application/Controller/static/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>user_id</t>
   </si>
@@ -169,6 +169,9 @@
     <t>Jan</t>
   </si>
   <si>
+    <t>Dec</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t>CS2001713</t>
   </si>
   <si>
+    <t>CS298433</t>
+  </si>
+  <si>
     <t>Java</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>DataBase Management</t>
   </si>
   <si>
+    <t>Past lives</t>
+  </si>
+  <si>
     <t>bla bla bla bla4</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>shitty subject</t>
   </si>
   <si>
+    <t>it's a movie course</t>
+  </si>
+  <si>
     <t>Someone</t>
   </si>
   <si>
@@ -262,10 +274,16 @@
     <t>8 Weeks</t>
   </si>
   <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>review_id</t>
@@ -913,7 +931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1011,6 +1029,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1018,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1029,28 +1070,28 @@
         <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1058,25 +1099,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1087,25 +1128,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1116,25 +1157,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1145,25 +1186,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1174,27 +1215,56 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1213,19 +1283,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1239,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1262,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>5</v>
